--- a/documents/DroidAssistedParking_ProjectPlan.xlsx
+++ b/documents/DroidAssistedParking_ProjectPlan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IoT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IoT\smart-parking\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t xml:space="preserve">Week </t>
   </si>
@@ -96,18 +96,9 @@
     <t>Create a copy(?) of Tower repository in local account</t>
   </si>
   <si>
-    <t>Explore DroneKit</t>
-  </si>
-  <si>
-    <t>Explore Solo SDK</t>
-  </si>
-  <si>
     <t>Check if they are available on AWS/Azure</t>
   </si>
   <si>
-    <t>Look at Tower code and make modifications</t>
-  </si>
-  <si>
     <t>Install Tower app and explore different options</t>
   </si>
   <si>
@@ -121,6 +112,45 @@
   </si>
   <si>
     <t>In progress</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Sanjeev to get back to us once they are in position to start drivign the initiative.</t>
+  </si>
+  <si>
+    <t>Understand OpenCV - write sample programs</t>
+  </si>
+  <si>
+    <t>OpenCV - program to identify parallel parking lines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenCV - program to count the number of parking slots </t>
+  </si>
+  <si>
+    <t>OpenCV - program to identify empty/occupied slots</t>
+  </si>
+  <si>
+    <t>Learn to compile and install source code, figure out the relation to 3DR services</t>
+  </si>
+  <si>
+    <t>Explore Solo SDK - can we use it for our requirement</t>
+  </si>
+  <si>
+    <t>Explore DroneKit - can we use it for our requirement</t>
+  </si>
+  <si>
+    <t>Make modifications to the Tower app - fly to a specified location, take picture, return (or define specified set of steps)</t>
+  </si>
+  <si>
+    <t>Explore OpenCV webservices (Azure/aws)</t>
+  </si>
+  <si>
+    <t>Week3-(06/31)</t>
+  </si>
+  <si>
+    <t>Write a program to upload pictures from the controller</t>
   </si>
 </sst>
 </file>
@@ -189,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -206,6 +236,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,7 +540,7 @@
     <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.42578125" customWidth="1"/>
+    <col min="8" max="8" width="42.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -525,7 +565,7 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -567,14 +607,13 @@
       <c r="G5" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E6" s="9">
         <v>42527</v>
@@ -587,8 +626,23 @@
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="9">
+        <v>42528</v>
+      </c>
+      <c r="F7" s="9">
+        <v>42530</v>
+      </c>
       <c r="G7" t="s">
         <v>10</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -596,7 +650,7 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E8" s="9">
         <v>42528</v>
@@ -604,8 +658,8 @@
       <c r="G8" t="s">
         <v>10</v>
       </c>
-      <c r="H8" t="s">
-        <v>24</v>
+      <c r="H8" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -617,21 +671,20 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
+      <c r="A10" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="B10" s="8"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G11" t="s">
         <v>11</v>
@@ -640,18 +693,18 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G12" t="s">
         <v>11</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
         <v>11</v>
@@ -659,7 +712,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -667,7 +720,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -675,13 +728,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C16">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E16" s="9">
-        <v>42536</v>
+        <v>42537</v>
       </c>
       <c r="F16" s="9">
         <v>42538</v>
@@ -690,9 +743,65 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>28</v>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/documents/DroidAssistedParking_ProjectPlan.xlsx
+++ b/documents/DroidAssistedParking_ProjectPlan.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IoT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahirc\Desktop\iot-projects\smart-parking\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
   <si>
     <t xml:space="preserve">Week </t>
   </si>
@@ -75,9 +75,6 @@
     <t>Explore image processing options</t>
   </si>
   <si>
-    <t>1) Does the drone follow you vertically? Let's say when you climb stairs, does it maintain the altitude?</t>
-  </si>
-  <si>
     <t>Figure out battery life between charge (estd. 20min)</t>
   </si>
   <si>
@@ -121,6 +118,15 @@
   </si>
   <si>
     <t>In progress</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Approximately 15 mins. Does not allow for takeoff after dropping below ~30%</t>
+  </si>
+  <si>
+    <t>Drone does not follow vertically, continues at about its same height from a distance while on "leash" mode.</t>
   </si>
 </sst>
 </file>
@@ -489,21 +495,21 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.42578125" customWidth="1"/>
+    <col min="3" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -514,7 +520,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
@@ -529,52 +535,95 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="9">
+        <v>42528</v>
+      </c>
+      <c r="F2" s="9">
+        <v>42530</v>
+      </c>
       <c r="G2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="9">
+        <v>42529</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="9">
+        <v>42529</v>
+      </c>
       <c r="G4" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>16</v>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="9">
+        <v>42529</v>
+      </c>
+      <c r="F5" s="9">
+        <v>42529</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" s="9">
         <v>42527</v>
@@ -583,20 +632,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="9">
         <v>42528</v>
@@ -605,18 +654,18 @@
         <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="7"/>
@@ -626,56 +675,56 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G12" t="s">
         <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>24</v>
@@ -690,9 +739,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -721,22 +770,22 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
